--- a/407_eth/Map Registers.xlsx
+++ b/407_eth/Map Registers.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8C241E-A657-4834-B930-FFCE20EDE949}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95CCBE2E-9220-40D8-8A14-492BC4CB964E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="62">
   <si>
     <t>Десятичная</t>
   </si>
@@ -188,6 +188,24 @@
   </si>
   <si>
     <t>сохранение растроек</t>
+  </si>
+  <si>
+    <t>0x12</t>
+  </si>
+  <si>
+    <t>0x13</t>
+  </si>
+  <si>
+    <t>ultrasens(1)/opt(0)</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>переключение между ултразвуком и оптикой</t>
+  </si>
+  <si>
+    <t>расстояние измеренное ултразвуком</t>
   </si>
 </sst>
 </file>
@@ -483,92 +501,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -913,10 +931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BI22"/>
+  <dimension ref="A1:BI34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -933,285 +951,285 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:7" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
     </row>
     <row r="3" spans="1:7" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="14"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" ht="59.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" ht="73.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>5</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="33" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="33" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>7</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="33" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="33" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>9</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="33" t="s">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="21"/>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>10</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="33" t="s">
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="23"/>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>11</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="33" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>12</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="33" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="27"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>13</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="33" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:61" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>14</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="33" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="27"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1268,85 +1286,225 @@
       <c r="BI17" s="2"/>
     </row>
     <row r="18" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="7">
         <v>15</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="27"/>
+      <c r="G18" s="25"/>
     </row>
     <row r="19" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>16</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="27"/>
+      <c r="G19" s="25"/>
     </row>
     <row r="20" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="7">
         <v>17</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="25"/>
     </row>
     <row r="21" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>18</v>
       </c>
-      <c r="C21" s="29"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+      <c r="C21" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="25"/>
     </row>
     <row r="22" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22" s="7">
         <v>19</v>
       </c>
-      <c r="C22" s="29" t="s">
+      <c r="C22" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G22" s="25"/>
+    </row>
+    <row r="23" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="7">
+        <v>20</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+    </row>
+    <row r="24" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="11">
+        <v>21</v>
+      </c>
+      <c r="C24" s="27"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+    </row>
+    <row r="25" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="7">
+        <v>22</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+    </row>
+    <row r="26" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>23</v>
+      </c>
+      <c r="C26" s="27"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+    </row>
+    <row r="27" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="11">
+        <v>24</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+    </row>
+    <row r="28" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="7">
+        <v>25</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27" t="s">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G28" s="25"/>
+    </row>
+    <row r="29" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="22"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+    </row>
+    <row r="30" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="22"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+    </row>
+    <row r="31" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="22"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+    </row>
+    <row r="32" spans="1:61" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="22"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="22"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+    </row>
+    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="22"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
